--- a/uploads/uploaded_file.xlsx
+++ b/uploads/uploaded_file.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_ide\在留資格管理\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E25CEB-5DC7-4350-BB00-B90C8DFF951D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973DABAF-5307-4F67-8157-10F62A954BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$72</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="217">
   <si>
     <t>担当者コード</t>
   </si>
@@ -684,6 +687,19 @@
   </si>
   <si>
     <t>CCCCCC333356</t>
+  </si>
+  <si>
+    <t>特技1号在留期限</t>
+    <rPh sb="0" eb="2">
+      <t>トクギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ザイリュウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -691,8 +707,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -764,15 +780,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="custom_date_style" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1076,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="U64" sqref="U64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1089,7 +1105,7 @@
     <col min="16" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,8 +1160,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>55</v>
       </c>
@@ -1177,32 +1196,32 @@
         <v>46113</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L49" si="0">IF(OR(J2="",I2=""),"",IF(OR(LEFT(H2,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H2)),OR(ISNUMBER(SEARCH("2号",H2)),ISNUMBER(SEARCH("２号",H2))))),"",IF(K2="","",K2+(J2-I2+1))))</f>
+        <f t="shared" ref="L2:L65" si="0">IF(OR(J2="",I2=""),"",IF(OR(LEFT(H2,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H2)),OR(ISNUMBER(SEARCH("2号",H2)),ISNUMBER(SEARCH("２号",H2))))),"",IF(K2="","",K2+(J2-I2+1))))</f>
         <v/>
       </c>
       <c r="M2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N2">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" ref="P2:P49" si="1">J2-M2</f>
-        <v>46023</v>
+        <v>45933</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" ref="Q2:Q49" si="2">J2-N2</f>
-        <v>46053</v>
+        <v>45963</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" ref="R2:R49" si="3">J2-O2</f>
-        <v>46083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>305</v>
       </c>
@@ -1238,28 +1257,28 @@
         <v/>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N3">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O3">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="1"/>
-        <v>46098</v>
+        <v>46008</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="2"/>
-        <v>46128</v>
+        <v>46038</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" si="3"/>
-        <v>46158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>211</v>
       </c>
@@ -1298,28 +1317,31 @@
         <v>550</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N4">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O4">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="1"/>
-        <v>45964</v>
+        <v>45874</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="2"/>
-        <v>45994</v>
+        <v>45904</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="3"/>
-        <v>46024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45934</v>
+      </c>
+      <c r="S4">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3500</v>
       </c>
@@ -1355,28 +1377,28 @@
         <v/>
       </c>
       <c r="M5">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N5">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O5">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="1"/>
-        <v>47219</v>
+        <v>47129</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="2"/>
-        <v>47249</v>
+        <v>47159</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="3"/>
-        <v>47279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+        <v>47189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3670</v>
       </c>
@@ -1415,28 +1437,31 @@
         <v>1827</v>
       </c>
       <c r="M6">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N6">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O6">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R6" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S6">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3671</v>
       </c>
@@ -1475,28 +1500,31 @@
         <v>1827</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N7">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O7">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S7">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3672</v>
       </c>
@@ -1535,28 +1563,31 @@
         <v>1827</v>
       </c>
       <c r="M8">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N8">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O8">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S8">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3673</v>
       </c>
@@ -1595,28 +1626,31 @@
         <v>1827</v>
       </c>
       <c r="M9">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N9">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O9">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S9">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3674</v>
       </c>
@@ -1655,28 +1689,31 @@
         <v>1827</v>
       </c>
       <c r="M10">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N10">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O10">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S10">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3675</v>
       </c>
@@ -1715,28 +1752,31 @@
         <v>1827</v>
       </c>
       <c r="M11">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N11">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O11">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S11">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3676</v>
       </c>
@@ -1775,28 +1815,31 @@
         <v>1827</v>
       </c>
       <c r="M12">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N12">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O12">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R12" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S12">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3677</v>
       </c>
@@ -1835,28 +1878,31 @@
         <v>1827</v>
       </c>
       <c r="M13">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N13">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O13">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S13">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3678</v>
       </c>
@@ -1895,28 +1941,31 @@
         <v>1827</v>
       </c>
       <c r="M14">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N14">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O14">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S14">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3679</v>
       </c>
@@ -1955,28 +2004,31 @@
         <v>1827</v>
       </c>
       <c r="M15">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N15">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O15">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S15">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3680</v>
       </c>
@@ -2015,28 +2067,31 @@
         <v>1827</v>
       </c>
       <c r="M16">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N16">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O16">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q16" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R16" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S16">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3681</v>
       </c>
@@ -2075,28 +2130,31 @@
         <v>1827</v>
       </c>
       <c r="M17">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N17">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O17">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S17">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3682</v>
       </c>
@@ -2135,28 +2193,31 @@
         <v>1827</v>
       </c>
       <c r="M18">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N18">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O18">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S18">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3683</v>
       </c>
@@ -2195,28 +2256,31 @@
         <v>1827</v>
       </c>
       <c r="M19">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N19">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O19">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S19">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3684</v>
       </c>
@@ -2255,28 +2319,31 @@
         <v>1827</v>
       </c>
       <c r="M20">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N20">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O20">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R20" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S20">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3685</v>
       </c>
@@ -2315,28 +2382,31 @@
         <v>1827</v>
       </c>
       <c r="M21">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N21">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O21">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R21" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S21">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3686</v>
       </c>
@@ -2375,28 +2445,31 @@
         <v>1827</v>
       </c>
       <c r="M22">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N22">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O22">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R22" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S22">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3687</v>
       </c>
@@ -2435,28 +2508,31 @@
         <v>1827</v>
       </c>
       <c r="M23">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N23">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O23">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S23">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3688</v>
       </c>
@@ -2495,28 +2571,31 @@
         <v>1827</v>
       </c>
       <c r="M24">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N24">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O24">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S24">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3689</v>
       </c>
@@ -2555,28 +2634,31 @@
         <v>1827</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N25">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O25">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" si="1"/>
-        <v>46145</v>
+        <v>46055</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" si="2"/>
-        <v>46175</v>
+        <v>46085</v>
       </c>
       <c r="R25" s="3">
         <f t="shared" si="3"/>
-        <v>46205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46115</v>
+      </c>
+      <c r="S25">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4001</v>
       </c>
@@ -2615,28 +2697,31 @@
         <v>1827</v>
       </c>
       <c r="M26">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N26">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O26">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" si="1"/>
-        <v>45841</v>
+        <v>45751</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="2"/>
-        <v>45871</v>
+        <v>45781</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" si="3"/>
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45811</v>
+      </c>
+      <c r="S26">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4002</v>
       </c>
@@ -2675,28 +2760,31 @@
         <v>1827</v>
       </c>
       <c r="M27">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N27">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O27">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="1"/>
-        <v>45902</v>
+        <v>45812</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="2"/>
-        <v>45932</v>
+        <v>45842</v>
       </c>
       <c r="R27" s="3">
         <f t="shared" si="3"/>
-        <v>45962</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45872</v>
+      </c>
+      <c r="S27">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>4003</v>
       </c>
@@ -2735,28 +2823,31 @@
         <v>1827</v>
       </c>
       <c r="M28">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N28">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O28">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="1"/>
-        <v>45933</v>
+        <v>45843</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" si="2"/>
-        <v>45963</v>
+        <v>45873</v>
       </c>
       <c r="R28" s="3">
         <f t="shared" si="3"/>
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45903</v>
+      </c>
+      <c r="S28">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4004</v>
       </c>
@@ -2795,28 +2886,31 @@
         <v>1827</v>
       </c>
       <c r="M29">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N29">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O29">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P29" s="3">
         <f t="shared" si="1"/>
-        <v>46220</v>
+        <v>46130</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" si="2"/>
-        <v>46250</v>
+        <v>46160</v>
       </c>
       <c r="R29" s="3">
         <f t="shared" si="3"/>
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46190</v>
+      </c>
+      <c r="S29">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4005</v>
       </c>
@@ -2855,28 +2949,31 @@
         <v>1827</v>
       </c>
       <c r="M30">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N30">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O30">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P30" s="3">
         <f t="shared" si="1"/>
-        <v>46220</v>
+        <v>46130</v>
       </c>
       <c r="Q30" s="3">
         <f t="shared" si="2"/>
-        <v>46250</v>
+        <v>46160</v>
       </c>
       <c r="R30" s="3">
         <f t="shared" si="3"/>
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46190</v>
+      </c>
+      <c r="S30">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4006</v>
       </c>
@@ -2915,28 +3012,31 @@
         <v>1827</v>
       </c>
       <c r="M31">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N31">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O31">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P31" s="3">
         <f t="shared" si="1"/>
-        <v>46220</v>
+        <v>46130</v>
       </c>
       <c r="Q31" s="3">
         <f t="shared" si="2"/>
-        <v>46250</v>
+        <v>46160</v>
       </c>
       <c r="R31" s="3">
         <f t="shared" si="3"/>
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46190</v>
+      </c>
+      <c r="S31">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4007</v>
       </c>
@@ -2975,28 +3075,31 @@
         <v>1827</v>
       </c>
       <c r="M32">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N32">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O32">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="1"/>
-        <v>46220</v>
+        <v>46130</v>
       </c>
       <c r="Q32" s="3">
         <f t="shared" si="2"/>
-        <v>46250</v>
+        <v>46160</v>
       </c>
       <c r="R32" s="3">
         <f t="shared" si="3"/>
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46190</v>
+      </c>
+      <c r="S32">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4008</v>
       </c>
@@ -3035,28 +3138,31 @@
         <v>1827</v>
       </c>
       <c r="M33">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N33">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O33">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>
-        <v>46220</v>
+        <v>46130</v>
       </c>
       <c r="Q33" s="3">
         <f t="shared" si="2"/>
-        <v>46250</v>
+        <v>46160</v>
       </c>
       <c r="R33" s="3">
         <f t="shared" si="3"/>
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46190</v>
+      </c>
+      <c r="S33">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>4009</v>
       </c>
@@ -3095,28 +3201,31 @@
         <v>1827</v>
       </c>
       <c r="M34">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N34">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O34">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P34" s="3">
         <f t="shared" si="1"/>
-        <v>46220</v>
+        <v>46130</v>
       </c>
       <c r="Q34" s="3">
         <f t="shared" si="2"/>
-        <v>46250</v>
+        <v>46160</v>
       </c>
       <c r="R34" s="3">
         <f t="shared" si="3"/>
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46190</v>
+      </c>
+      <c r="S34">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4010</v>
       </c>
@@ -3155,28 +3264,31 @@
         <v>1827</v>
       </c>
       <c r="M35">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N35">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O35">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P35" s="3">
         <f t="shared" si="1"/>
-        <v>46220</v>
+        <v>46130</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="2"/>
-        <v>46250</v>
+        <v>46160</v>
       </c>
       <c r="R35" s="3">
         <f t="shared" si="3"/>
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46190</v>
+      </c>
+      <c r="S35">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>4011</v>
       </c>
@@ -3215,28 +3327,31 @@
         <v>1827</v>
       </c>
       <c r="M36">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N36">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O36">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P36" s="3">
         <f t="shared" si="1"/>
-        <v>46220</v>
+        <v>46130</v>
       </c>
       <c r="Q36" s="3">
         <f t="shared" si="2"/>
-        <v>46250</v>
+        <v>46160</v>
       </c>
       <c r="R36" s="3">
         <f t="shared" si="3"/>
-        <v>46280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46190</v>
+      </c>
+      <c r="S36">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4012</v>
       </c>
@@ -3275,28 +3390,31 @@
         <v>1827</v>
       </c>
       <c r="M37">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N37">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O37">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P37" s="3">
         <f t="shared" si="1"/>
-        <v>46225</v>
+        <v>46135</v>
       </c>
       <c r="Q37" s="3">
         <f t="shared" si="2"/>
-        <v>46255</v>
+        <v>46165</v>
       </c>
       <c r="R37" s="3">
         <f t="shared" si="3"/>
-        <v>46285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46195</v>
+      </c>
+      <c r="S37">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>4013</v>
       </c>
@@ -3335,28 +3453,31 @@
         <v>1827</v>
       </c>
       <c r="M38">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N38">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O38">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P38" s="3">
         <f t="shared" si="1"/>
-        <v>46226</v>
+        <v>46136</v>
       </c>
       <c r="Q38" s="3">
         <f t="shared" si="2"/>
-        <v>46256</v>
+        <v>46166</v>
       </c>
       <c r="R38" s="3">
         <f t="shared" si="3"/>
-        <v>46286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46196</v>
+      </c>
+      <c r="S38">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4014</v>
       </c>
@@ -3395,28 +3516,31 @@
         <v>1827</v>
       </c>
       <c r="M39">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N39">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O39">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P39" s="3">
         <f t="shared" si="1"/>
-        <v>46227</v>
+        <v>46137</v>
       </c>
       <c r="Q39" s="3">
         <f t="shared" si="2"/>
-        <v>46257</v>
+        <v>46167</v>
       </c>
       <c r="R39" s="3">
         <f t="shared" si="3"/>
-        <v>46287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46197</v>
+      </c>
+      <c r="S39">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4015</v>
       </c>
@@ -3455,28 +3579,31 @@
         <v>1827</v>
       </c>
       <c r="M40">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N40">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O40">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P40" s="3">
         <f t="shared" si="1"/>
-        <v>46228</v>
+        <v>46138</v>
       </c>
       <c r="Q40" s="3">
         <f t="shared" si="2"/>
-        <v>46258</v>
+        <v>46168</v>
       </c>
       <c r="R40" s="3">
         <f t="shared" si="3"/>
-        <v>46288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46198</v>
+      </c>
+      <c r="S40">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4016</v>
       </c>
@@ -3515,28 +3642,31 @@
         <v>1827</v>
       </c>
       <c r="M41">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N41">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O41">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P41" s="3">
         <f t="shared" si="1"/>
-        <v>46229</v>
+        <v>46139</v>
       </c>
       <c r="Q41" s="3">
         <f t="shared" si="2"/>
-        <v>46259</v>
+        <v>46169</v>
       </c>
       <c r="R41" s="3">
         <f t="shared" si="3"/>
-        <v>46289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46199</v>
+      </c>
+      <c r="S41">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4017</v>
       </c>
@@ -3575,28 +3705,31 @@
         <v>1827</v>
       </c>
       <c r="M42">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N42">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O42">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P42" s="3">
         <f t="shared" si="1"/>
-        <v>46230</v>
+        <v>46140</v>
       </c>
       <c r="Q42" s="3">
         <f t="shared" si="2"/>
-        <v>46260</v>
+        <v>46170</v>
       </c>
       <c r="R42" s="3">
         <f t="shared" si="3"/>
-        <v>46290</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46200</v>
+      </c>
+      <c r="S42">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>4018</v>
       </c>
@@ -3635,28 +3768,31 @@
         <v>1827</v>
       </c>
       <c r="M43">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N43">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O43">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="1"/>
-        <v>46231</v>
+        <v>46141</v>
       </c>
       <c r="Q43" s="3">
         <f t="shared" si="2"/>
-        <v>46261</v>
+        <v>46171</v>
       </c>
       <c r="R43" s="3">
         <f t="shared" si="3"/>
-        <v>46291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46201</v>
+      </c>
+      <c r="S43">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4019</v>
       </c>
@@ -3695,28 +3831,31 @@
         <v>1827</v>
       </c>
       <c r="M44">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N44">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O44">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P44" s="3">
         <f t="shared" si="1"/>
-        <v>46232</v>
+        <v>46142</v>
       </c>
       <c r="Q44" s="3">
         <f t="shared" si="2"/>
-        <v>46262</v>
+        <v>46172</v>
       </c>
       <c r="R44" s="3">
         <f t="shared" si="3"/>
-        <v>46292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46202</v>
+      </c>
+      <c r="S44">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4020</v>
       </c>
@@ -3755,28 +3894,31 @@
         <v>1827</v>
       </c>
       <c r="M45">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N45">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O45">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" si="1"/>
-        <v>46233</v>
+        <v>46143</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" si="2"/>
-        <v>46263</v>
+        <v>46173</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" si="3"/>
-        <v>46293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46203</v>
+      </c>
+      <c r="S45">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1111</v>
       </c>
@@ -3815,28 +3957,31 @@
         <v>366</v>
       </c>
       <c r="M46">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N46">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O46">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P46" s="3">
         <f t="shared" si="1"/>
-        <v>45913</v>
+        <v>45823</v>
       </c>
       <c r="Q46" s="3">
         <f t="shared" si="2"/>
-        <v>45943</v>
+        <v>45853</v>
       </c>
       <c r="R46" s="3">
         <f t="shared" si="3"/>
-        <v>45973</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+        <v>45883</v>
+      </c>
+      <c r="S46">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2222</v>
       </c>
@@ -3872,28 +4017,28 @@
         <v/>
       </c>
       <c r="M47">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N47">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O47">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P47" s="3">
         <f t="shared" si="1"/>
-        <v>46089</v>
+        <v>45999</v>
       </c>
       <c r="Q47" s="3">
         <f t="shared" si="2"/>
-        <v>46119</v>
+        <v>46029</v>
       </c>
       <c r="R47" s="3">
         <f t="shared" si="3"/>
-        <v>46149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>3333</v>
       </c>
@@ -3929,25 +4074,25 @@
         <v/>
       </c>
       <c r="M48">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N48">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O48">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P48" s="3">
         <f t="shared" si="1"/>
-        <v>46330</v>
+        <v>46240</v>
       </c>
       <c r="Q48" s="3">
         <f t="shared" si="2"/>
-        <v>46360</v>
+        <v>46270</v>
       </c>
       <c r="R48" s="3">
         <f t="shared" si="3"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.15">
@@ -3986,25 +4131,25 @@
         <v/>
       </c>
       <c r="M49">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N49">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O49">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P49" s="3">
         <f t="shared" si="1"/>
-        <v>45881</v>
+        <v>45791</v>
       </c>
       <c r="Q49" s="3">
         <f t="shared" si="2"/>
-        <v>45911</v>
+        <v>45821</v>
       </c>
       <c r="R49" s="3">
         <f t="shared" si="3"/>
-        <v>45941</v>
+        <v>45851</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
@@ -4039,29 +4184,29 @@
         <v>46420</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" ref="L50:L51" si="4">IF(OR(J50="",I50=""),"",IF(OR(LEFT(H50,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H50)),OR(ISNUMBER(SEARCH("2号",H50)),ISNUMBER(SEARCH("２号",H50))))),"",IF(K50="","",K50+(J50-I50+1))))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M50">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N50">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O50">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" ref="P50:P51" si="5">J50-M50</f>
-        <v>46330</v>
+        <f t="shared" ref="P50:P51" si="4">J50-M50</f>
+        <v>46240</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" ref="Q50:Q51" si="6">J50-N50</f>
-        <v>46360</v>
+        <f t="shared" ref="Q50:Q51" si="5">J50-N50</f>
+        <v>46270</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" ref="R50:R51" si="7">J50-O50</f>
-        <v>46390</v>
+        <f t="shared" ref="R50:R51" si="6">J50-O50</f>
+        <v>46300</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
@@ -4096,29 +4241,29 @@
         <v>46420</v>
       </c>
       <c r="L51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M51">
+        <v>180</v>
+      </c>
+      <c r="N51">
+        <v>150</v>
+      </c>
+      <c r="O51">
+        <v>120</v>
+      </c>
+      <c r="P51" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M51">
-        <v>90</v>
-      </c>
-      <c r="N51">
-        <v>60</v>
-      </c>
-      <c r="O51">
-        <v>30</v>
-      </c>
-      <c r="P51" s="3">
+        <v>46240</v>
+      </c>
+      <c r="Q51" s="3">
         <f t="shared" si="5"/>
-        <v>46330</v>
-      </c>
-      <c r="Q51" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R51" s="3">
         <f t="shared" si="6"/>
-        <v>46360</v>
-      </c>
-      <c r="R51" s="3">
-        <f t="shared" si="7"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
@@ -4152,26 +4297,30 @@
       <c r="J52" s="2">
         <v>46420</v>
       </c>
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M52">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N52">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O52">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" ref="P52:P72" si="8">J52-M52</f>
-        <v>46330</v>
+        <f t="shared" ref="P52:P72" si="7">J52-M52</f>
+        <v>46240</v>
       </c>
       <c r="Q52" s="3">
-        <f t="shared" ref="Q52:Q72" si="9">J52-N52</f>
-        <v>46360</v>
+        <f t="shared" ref="Q52:Q72" si="8">J52-N52</f>
+        <v>46270</v>
       </c>
       <c r="R52" s="3">
-        <f t="shared" ref="R52:R72" si="10">J52-O52</f>
-        <v>46390</v>
+        <f t="shared" ref="R52:R72" si="9">J52-O52</f>
+        <v>46300</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
@@ -4205,26 +4354,30 @@
       <c r="J53" s="2">
         <v>46420</v>
       </c>
+      <c r="L53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M53">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N53">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O53">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P53" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q53" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q53" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R53" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R53" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
@@ -4258,26 +4411,30 @@
       <c r="J54" s="2">
         <v>46420</v>
       </c>
+      <c r="L54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M54">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N54">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O54">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P54" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q54" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q54" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R54" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R54" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
@@ -4311,26 +4468,30 @@
       <c r="J55" s="2">
         <v>46420</v>
       </c>
+      <c r="L55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M55">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N55">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O55">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P55" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q55" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q55" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R55" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R55" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
@@ -4364,26 +4525,30 @@
       <c r="J56" s="2">
         <v>46420</v>
       </c>
+      <c r="L56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M56">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N56">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O56">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P56" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q56" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q56" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R56" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R56" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
@@ -4417,26 +4582,30 @@
       <c r="J57" s="2">
         <v>46420</v>
       </c>
+      <c r="L57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M57">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N57">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O57">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P57" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q57" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q57" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R57" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R57" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
@@ -4470,26 +4639,30 @@
       <c r="J58" s="2">
         <v>46420</v>
       </c>
+      <c r="L58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M58">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N58">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O58">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P58" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q58" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q58" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R58" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R58" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
@@ -4523,26 +4696,30 @@
       <c r="J59" s="2">
         <v>46420</v>
       </c>
+      <c r="L59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M59">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N59">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O59">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P59" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q59" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q59" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R59" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R59" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
@@ -4576,26 +4753,30 @@
       <c r="J60" s="2">
         <v>46420</v>
       </c>
+      <c r="L60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M60">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N60">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O60">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P60" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q60" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q60" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R60" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R60" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
@@ -4629,26 +4810,30 @@
       <c r="J61" s="2">
         <v>46420</v>
       </c>
+      <c r="L61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M61">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N61">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O61">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P61" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q61" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q61" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R61" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R61" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
@@ -4682,26 +4867,30 @@
       <c r="J62" s="2">
         <v>46420</v>
       </c>
+      <c r="L62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M62">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N62">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O62">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P62" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q62" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q62" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R62" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R62" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.15">
@@ -4735,26 +4924,30 @@
       <c r="J63" s="2">
         <v>46420</v>
       </c>
+      <c r="L63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M63">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N63">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O63">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P63" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q63" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q63" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R63" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R63" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.15">
@@ -4788,26 +4981,30 @@
       <c r="J64" s="2">
         <v>46420</v>
       </c>
+      <c r="L64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M64">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N64">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O64">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P64" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q64" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q64" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R64" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R64" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.15">
@@ -4841,26 +5038,30 @@
       <c r="J65" s="2">
         <v>46420</v>
       </c>
+      <c r="L65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="M65">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N65">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O65">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P65" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q65" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q65" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R65" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R65" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
@@ -4894,26 +5095,30 @@
       <c r="J66" s="2">
         <v>46420</v>
       </c>
+      <c r="L66" t="str">
+        <f t="shared" ref="L66:L72" si="10">IF(OR(J66="",I66=""),"",IF(OR(LEFT(H66,4)="技能実習",AND(ISNUMBER(SEARCH("特定技能",H66)),OR(ISNUMBER(SEARCH("2号",H66)),ISNUMBER(SEARCH("２号",H66))))),"",IF(K66="","",K66+(J66-I66+1))))</f>
+        <v/>
+      </c>
       <c r="M66">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N66">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O66">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P66" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q66" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q66" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R66" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R66" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
@@ -4947,26 +5152,30 @@
       <c r="J67" s="2">
         <v>46420</v>
       </c>
+      <c r="L67" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="M67">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N67">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O67">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P67" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q67" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q67" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R67" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R67" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.15">
@@ -5000,26 +5209,30 @@
       <c r="J68" s="2">
         <v>46420</v>
       </c>
+      <c r="L68" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="M68">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N68">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O68">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P68" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q68" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q68" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R68" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R68" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.15">
@@ -5053,26 +5266,30 @@
       <c r="J69" s="2">
         <v>46420</v>
       </c>
+      <c r="L69" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="M69">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N69">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O69">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P69" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q69" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q69" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R69" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R69" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.15">
@@ -5106,26 +5323,30 @@
       <c r="J70" s="2">
         <v>46420</v>
       </c>
+      <c r="L70" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="M70">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N70">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O70">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P70" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q70" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q70" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R70" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R70" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
@@ -5159,26 +5380,30 @@
       <c r="J71" s="2">
         <v>46420</v>
       </c>
+      <c r="L71" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="M71">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N71">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O71">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P71" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q71" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q71" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R71" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R71" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
@@ -5212,29 +5437,34 @@
       <c r="J72" s="2">
         <v>46420</v>
       </c>
+      <c r="L72" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="M72">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N72">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O72">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P72" s="3">
+        <f t="shared" si="7"/>
+        <v>46240</v>
+      </c>
+      <c r="Q72" s="3">
         <f t="shared" si="8"/>
-        <v>46330</v>
-      </c>
-      <c r="Q72" s="3">
+        <v>46270</v>
+      </c>
+      <c r="R72" s="3">
         <f t="shared" si="9"/>
-        <v>46360</v>
-      </c>
-      <c r="R72" s="3">
-        <f t="shared" si="10"/>
-        <v>46390</v>
+        <v>46300</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
